--- a/rs/test.xlsx
+++ b/rs/test.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion lowestEdited="7" rupBuild="27830" appName="xl" lastEdited="7"/>
+<!--
+<dvmo:office>
+    <dvmo:appName>draviavemal_openxml_office</dvmo:appName>
+    <dvmo:repo>https://github.com/DraviaVemal/openxml-office</dvmo:repo>
+    <dvmo:version>4.0.0</dvmo:version>
+    <dvmo:modified>2024-11-29T08:52:54Z</dvmo:modified>
+</dvmo:office>
+-->
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:dvmo="http://schemas.draviavemal.com/openxml-office" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion lastEdited="7" lowestEdited="7" appName="xl" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draviavemal\Desktop\"/>
+      <x15ac:absPath url="C:\Users\draviavemal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446699CE-8E24-4357-A073-74D0BFA48806}" xr6:coauthVersionLast="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" documentId="13_ncr:1_{446699CE-8E24-4357-A073-74D0BFA48806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" revIDLastSave="0"/>
   <bookViews>
-    <workbookView activeTab="1" yWindow="-120" windowWidth="38640" xWindow="-120" windowHeight="21120" xr2:uid="{55A69094-CFF0-4A24-937F-3F8966A07938}"/>
+    <workbookView yWindow="-120" windowWidth="38640" xWindow="-120" xr2:uid="{55A69094-CFF0-4A24-937F-3F8966A07938}" windowHeight="21120" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Style" r:id="rId1"/>
+    <sheet name="Style" sheetId="1" r:id="rId1"/>
     <sheet sheetId="2" r:id="rId2" name="formula"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -35,7 +43,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<!--
+<dvmo:office>
+    <dvmo:appName>draviavemal_openxml_office</dvmo:appName>
+    <dvmo:repo>https://github.com/DraviaVemal/openxml-office</dvmo:repo>
+    <dvmo:version>4.0.0</dvmo:version>
+    <dvmo:modified>2024-11-29T08:52:54Z</dvmo:modified>
+</dvmo:office>
+-->
+<sst xmlns:dvmo="http://schemas.draviavemal.com/openxml-office" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Different Family</t>
   </si>
@@ -124,11 +140,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<!--
+<dvmo:office>
+    <dvmo:appName>draviavemal_openxml_office</dvmo:appName>
+    <dvmo:repo>https://github.com/DraviaVemal/openxml-office</dvmo:repo>
+    <dvmo:version>4.0.0</dvmo:version>
+    <dvmo:modified>2024-11-29T08:52:54Z</dvmo:modified>
+</dvmo:office>
+-->
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:dvmo="http://schemas.draviavemal.com/openxml-office" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts x14ac:knownFonts="1" count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,67 +331,67 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf fillId="0" borderId="0" fontId="0" numFmtId="0"/>
-    <xf applyProtection="0" fillId="2" applyBorder="0" applyAlignment="0" applyNumberFormat="0" numFmtId="0" borderId="0" fontId="1"/>
-    <xf numFmtId="0" applyAlignment="0" applyProtection="0" applyNumberFormat="0" fontId="2" fillId="3" applyBorder="0" borderId="0"/>
-    <xf fontId="3" borderId="0" applyNumberFormat="0" fillId="4" applyProtection="0" applyAlignment="0" applyBorder="0" numFmtId="0"/>
+    <xf numFmtId="0" borderId="0" fillId="0" fontId="0"/>
+    <xf fontId="1" numFmtId="0" applyBorder="0" applyAlignment="0" borderId="0" applyProtection="0" applyNumberFormat="0" fillId="2"/>
+    <xf fillId="3" applyNumberFormat="0" numFmtId="0" applyBorder="0" fontId="2" applyAlignment="0" applyProtection="0" borderId="0"/>
+    <xf numFmtId="0" applyProtection="0" fillId="4" applyNumberFormat="0" applyAlignment="0" borderId="0" applyBorder="0" fontId="3"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf fillId="0" xfId="0" fontId="0" numFmtId="0" borderId="0"/>
-    <xf xfId="0" fontId="6" applyFont="1" numFmtId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fillId="0" borderId="0" xfId="0" applyFont="1" fontId="7"/>
-    <xf numFmtId="0" xfId="0" applyFont="1" borderId="0" fillId="0" fontId="8"/>
-    <xf fillId="5" fontId="0" borderId="0" xfId="0" numFmtId="0" applyFill="1"/>
-    <xf borderId="0" numFmtId="0" fillId="0" fontId="4" xfId="0" applyFont="1"/>
-    <xf fillId="0" xfId="0" applyBorder="1" fontId="0" numFmtId="0" borderId="1"/>
-    <xf borderId="0" fillId="0" xfId="0" numFmtId="0" applyAlignment="1" fontId="0">
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf applyFont="1" fillId="0" numFmtId="0" fontId="6" borderId="0" xfId="0"/>
+    <xf applyFont="1" fillId="0" xfId="0" numFmtId="0" fontId="7" borderId="0"/>
+    <xf xfId="0" numFmtId="0" fillId="0" fontId="8" borderId="0" applyFont="1"/>
+    <xf borderId="0" numFmtId="0" fontId="0" xfId="0" applyFill="1" fillId="5"/>
+    <xf fontId="4" applyFont="1" numFmtId="0" xfId="0" borderId="0" fillId="0"/>
+    <xf xfId="0" fontId="0" applyBorder="1" numFmtId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" applyAlignment="1" xfId="0" fontId="0" borderId="0" fillId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" xfId="0" applyBorder="1" borderId="2" numFmtId="0" fillId="0"/>
-    <xf borderId="3" fontId="0" xfId="0" numFmtId="0" fillId="0" applyBorder="1"/>
-    <xf xfId="0" numFmtId="0" fontId="0" applyBorder="1" fillId="0" borderId="4"/>
-    <xf fontId="0" xfId="0" numFmtId="0" fillId="0" applyBorder="1" borderId="5"/>
-    <xf xfId="0" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" numFmtId="2"/>
-    <xf fillId="0" borderId="0" xfId="0" numFmtId="164" fontId="0" applyNumberFormat="1"/>
-    <xf xfId="0" fillId="0" fontId="9" numFmtId="0" borderId="0" applyFont="1"/>
-    <xf fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1" borderId="0"/>
-    <xf applyFont="1" fillId="0" numFmtId="0" xfId="0" borderId="0" fontId="11"/>
-    <xf borderId="0" xfId="0" numFmtId="0" applyFont="1" fillId="0" fontId="5"/>
-    <xf xfId="0" fontId="0" applyAlignment="1" numFmtId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" xfId="0" applyBorder="1" fillId="0" borderId="2"/>
+    <xf fillId="0" borderId="3" numFmtId="0" applyBorder="1" xfId="0" fontId="0"/>
+    <xf borderId="4" fontId="0" numFmtId="0" fillId="0" xfId="0" applyBorder="1"/>
+    <xf applyBorder="1" fontId="0" xfId="0" numFmtId="0" fillId="0" borderId="5"/>
+    <xf fillId="0" borderId="0" fontId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf xfId="0" fontId="0" fillId="0" numFmtId="164" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" borderId="0" fillId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFont="1" xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fontId="5" xfId="0" numFmtId="0" applyFont="1" fillId="0"/>
+    <xf applyAlignment="1" fillId="0" borderId="0" xfId="0" fontId="0" numFmtId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf xfId="0" applyAlignment="1" fontId="0" fillId="0" borderId="0" numFmtId="0">
+    <xf fillId="0" fontId="0" xfId="0" applyAlignment="1" numFmtId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" borderId="0" numFmtId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" xfId="0" applyAlignment="1" numFmtId="0" fontId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" numFmtId="0" xfId="0" fontId="0" borderId="0">
+    <xf fontId="0" xfId="0" applyAlignment="1" borderId="0" fillId="0" numFmtId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyAlignment="1" borderId="0" fillId="0" fontId="0" xfId="0">
+    <xf fillId="0" applyAlignment="1" borderId="0" fontId="0" xfId="0" numFmtId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" xfId="3" numFmtId="0" fillId="4" fontId="3"/>
-    <xf fontId="1" borderId="0" xfId="1" numFmtId="0" fillId="2"/>
-    <xf fontId="2" numFmtId="0" xfId="2" borderId="0" fillId="3"/>
-    <xf fontId="0" xfId="0" applyAlignment="1" numFmtId="0" borderId="0" fillId="0">
+    <xf fillId="4" xfId="3" numFmtId="0" fontId="3" borderId="0"/>
+    <xf borderId="0" fontId="1" xfId="1" numFmtId="0" fillId="2"/>
+    <xf numFmtId="0" xfId="2" fillId="3" fontId="2" borderId="0"/>
+    <xf applyAlignment="1" numFmtId="0" borderId="0" xfId="0" fontId="0" fillId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle xfId="1" builtinId="26" name="Good"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultPivotStyle="PivotStyleLight16" count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
@@ -375,7 +399,15 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<!--
+<dvmo:office>
+    <dvmo:appName>draviavemal_openxml_office</dvmo:appName>
+    <dvmo:repo>https://github.com/DraviaVemal/openxml-office</dvmo:repo>
+    <dvmo:version>4.0.0</dvmo:version>
+    <dvmo:modified>2024-11-29T08:52:54Z</dvmo:modified>
+</dvmo:office>
+-->
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:dvmo="http://schemas.draviavemal.com/openxml-office" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,108 +449,108 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font typeface="游ゴシック Light" script="Jpan"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
         <a:font typeface="Times New Roman" script="Hebr"/>
         <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font typeface="Nyala" script="Ethi"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font typeface="Shruti" script="Gujr"/>
         <a:font typeface="MoolBoran" script="Khmr"/>
         <a:font script="Knda" typeface="Tunga"/>
         <a:font script="Guru" typeface="Raavi"/>
         <a:font typeface="Euphemia" script="Cans"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
         <a:font script="Taml" typeface="Latha"/>
         <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font script="Orya" typeface="Kalinga"/>
         <a:font script="Mlym" typeface="Kartika"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font typeface="Javanese Text" script="Java"/>
+        <a:font typeface="Segoe UI" script="Lisu"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font typeface="Ebrima" script="Osma"/>
+        <a:font typeface="Phagspa" script="Phag"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font typeface="Ebrima" script="Tfng"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="游ゴシック" script="Jpan"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
         <a:font typeface="Microsoft Uighur" script="Uigh"/>
         <a:font typeface="Sylfaen" script="Geor"/>
         <a:font script="Armn" typeface="Arial"/>
         <a:font script="Bugi" typeface="Leelawadee UI"/>
         <a:font typeface="Microsoft JhengHei" script="Bopo"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font typeface="Myanmar Text" script="Mymr"/>
-        <a:font typeface="Ebrima" script="Nkoo"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font typeface="Javanese Text" script="Java"/>
+        <a:font typeface="Segoe UI" script="Lisu"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font typeface="Nirmala UI" script="Olck"/>
+        <a:font typeface="Ebrima" script="Osma"/>
         <a:font script="Phag" typeface="Phagspa"/>
         <a:font script="Syrn" typeface="Estrangelo Edessa"/>
         <a:font script="Syrj" typeface="Estrangelo Edessa"/>
         <a:font typeface="Estrangelo Edessa" script="Syre"/>
         <a:font typeface="Nirmala UI" script="Sora"/>
         <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font typeface="Microsoft New Tai Lue" script="Talu"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
         <a:font typeface="Ebrima" script="Tfng"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="游ゴシック" script="Jpan"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font typeface="Ebrima" script="Nkoo"/>
-        <a:font typeface="Nirmala UI" script="Olck"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrn"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrj"/>
-        <a:font typeface="Estrangelo Edessa" script="Syre"/>
-        <a:font typeface="Nirmala UI" script="Sora"/>
-        <a:font typeface="Microsoft Tai Le" script="Tale"/>
-        <a:font typeface="Microsoft New Tai Lue" script="Talu"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,7 +582,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="0" ang="5400000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -576,25 +608,25 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="0" ang="5400000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cmpd="sng" algn="ctr" w="6350" cap="flat">
+        <a:ln cap="flat" algn="ctr" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" w="12700" cap="flat" cmpd="sng">
+        <a:ln cmpd="sng" cap="flat" algn="ctr" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cmpd="sng" w="19050" algn="ctr" cap="flat">
+        <a:ln cap="flat" algn="ctr" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -611,7 +643,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw rotWithShape="0" dir="5400000" dist="19050" algn="ctr" blurRad="57150">
+            <a:outerShdw dir="5400000" dist="19050" rotWithShape="0" algn="ctr" blurRad="57150">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -654,7 +686,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="0" ang="5400000"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -663,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}"/>
+      <thm15:themeFamily vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
